--- a/Code/Results/Cases/Case_5_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.996919632131778</v>
+        <v>1.915337084949954</v>
       </c>
       <c r="C2">
-        <v>1.626856117552279</v>
+        <v>0.7626329390455453</v>
       </c>
       <c r="D2">
-        <v>0.04233555741387107</v>
+        <v>0.0785268819043381</v>
       </c>
       <c r="E2">
-        <v>0.1186209175981219</v>
+        <v>0.1324298137336264</v>
       </c>
       <c r="F2">
-        <v>2.449829431937587</v>
+        <v>2.70358111804515</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8808736830068042</v>
+        <v>1.173246884594342</v>
       </c>
       <c r="J2">
-        <v>0.2294894758311727</v>
+        <v>0.2152654089921526</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6781183622179654</v>
+        <v>1.451936423763801</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.455240944645197</v>
+        <v>1.781360351033413</v>
       </c>
       <c r="C3">
-        <v>1.404698135645503</v>
+        <v>0.7090328520513367</v>
       </c>
       <c r="D3">
-        <v>0.03790966611072832</v>
+        <v>0.07766014432237967</v>
       </c>
       <c r="E3">
-        <v>0.1055338581494283</v>
+        <v>0.1300552079161079</v>
       </c>
       <c r="F3">
-        <v>2.215227122679508</v>
+        <v>2.668008519446587</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8184283131629613</v>
+        <v>1.168108977947384</v>
       </c>
       <c r="J3">
-        <v>0.2034805648971485</v>
+        <v>0.210460442578956</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7326602509685465</v>
+        <v>1.472418139736323</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.128108724033837</v>
+        <v>1.700109919135343</v>
       </c>
       <c r="C4">
-        <v>1.271017244826453</v>
+        <v>0.6765687448395283</v>
       </c>
       <c r="D4">
-        <v>0.03521819920900526</v>
+        <v>0.07714822277146993</v>
       </c>
       <c r="E4">
-        <v>0.09770002964089741</v>
+        <v>0.1286672436206757</v>
       </c>
       <c r="F4">
-        <v>2.077591334664788</v>
+        <v>2.647991089842691</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.782760728997502</v>
+        <v>1.165750334107337</v>
       </c>
       <c r="J4">
-        <v>0.1880100092593793</v>
+        <v>0.207647818626512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7677832491068806</v>
+        <v>1.485616131307161</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.995975071651628</v>
+        <v>1.667252282828542</v>
       </c>
       <c r="C5">
-        <v>1.217129302794319</v>
+        <v>0.6634503937988825</v>
       </c>
       <c r="D5">
-        <v>0.03412718639215484</v>
+        <v>0.07694473635663002</v>
       </c>
       <c r="E5">
-        <v>0.09455273377054851</v>
+        <v>0.1281192083343825</v>
       </c>
       <c r="F5">
-        <v>2.02294836970465</v>
+        <v>2.640290004049447</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7688345065975639</v>
+        <v>1.164988256555297</v>
       </c>
       <c r="J5">
-        <v>0.1818167914394877</v>
+        <v>0.2065360688797355</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7824864354187007</v>
+        <v>1.49115044753847</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.974099936197319</v>
+        <v>1.661811498981308</v>
       </c>
       <c r="C6">
-        <v>1.208214106502169</v>
+        <v>0.6612787716596813</v>
       </c>
       <c r="D6">
-        <v>0.0339463527801982</v>
+        <v>0.07691125811196287</v>
       </c>
       <c r="E6">
-        <v>0.09403269320567631</v>
+        <v>0.128029267509099</v>
       </c>
       <c r="F6">
-        <v>2.013957605731576</v>
+        <v>2.639038722698331</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.766557071585467</v>
+        <v>1.164873707134348</v>
       </c>
       <c r="J6">
-        <v>0.180794732645559</v>
+        <v>0.206353536779595</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7849508945049735</v>
+        <v>1.492078828231861</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.126322212299272</v>
+        <v>1.699665769334615</v>
       </c>
       <c r="C7">
-        <v>1.270288233621613</v>
+        <v>0.6763913782256168</v>
       </c>
       <c r="D7">
-        <v>0.03520346297680987</v>
+        <v>0.0771454576853543</v>
       </c>
       <c r="E7">
-        <v>0.09765740879048579</v>
+        <v>0.1286597815353971</v>
       </c>
       <c r="F7">
-        <v>2.076848760750821</v>
+        <v>2.647885386646891</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7825705309314301</v>
+        <v>1.165739251808382</v>
       </c>
       <c r="J7">
-        <v>0.187926053234996</v>
+        <v>0.20763268607935</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7679799870035531</v>
+        <v>1.485690137848827</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.808890299732411</v>
+        <v>1.868930727528095</v>
       </c>
       <c r="C8">
-        <v>1.549628944815311</v>
+        <v>0.7440581658860879</v>
       </c>
       <c r="D8">
-        <v>0.04080361462109749</v>
+        <v>0.0782238444535821</v>
       </c>
       <c r="E8">
-        <v>0.1140630590374272</v>
+        <v>0.1315964821197291</v>
       </c>
       <c r="F8">
-        <v>2.367502108587729</v>
+        <v>2.690935490946529</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8587471558175466</v>
+        <v>1.171309453041466</v>
       </c>
       <c r="J8">
-        <v>0.2204089664799795</v>
+        <v>0.2135799684315316</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6965722190272281</v>
+        <v>1.458869147399096</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.200796936905249</v>
+        <v>2.208991472260152</v>
       </c>
       <c r="C9">
-        <v>2.123989778974646</v>
+        <v>0.8803605316782637</v>
       </c>
       <c r="D9">
-        <v>0.05203197261610626</v>
+        <v>0.08049809227363625</v>
       </c>
       <c r="E9">
-        <v>0.1481225962348489</v>
+        <v>0.1379136895224313</v>
       </c>
       <c r="F9">
-        <v>2.996834183851945</v>
+        <v>2.789955708269275</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.032581575034015</v>
+        <v>1.188600361106026</v>
       </c>
       <c r="J9">
-        <v>0.2887957534803149</v>
+        <v>0.2263444712621521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5705488274495067</v>
+        <v>1.411227413368142</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.27205614414089</v>
+        <v>2.463966126344474</v>
       </c>
       <c r="C10">
-        <v>2.570108792113672</v>
+        <v>0.9828027359244516</v>
       </c>
       <c r="D10">
-        <v>0.06049616027048899</v>
+        <v>0.08226487072665378</v>
       </c>
       <c r="E10">
-        <v>0.17475669807353</v>
+        <v>0.1428995463345828</v>
       </c>
       <c r="F10">
-        <v>3.508936931262923</v>
+        <v>2.871790857142884</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.180355492113137</v>
+        <v>1.205260846780263</v>
       </c>
       <c r="J10">
-        <v>0.3430610620930139</v>
+        <v>0.2364092117753955</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4881545887356324</v>
+        <v>1.379268598837079</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.774226401076305</v>
+        <v>2.581115233099183</v>
       </c>
       <c r="C11">
-        <v>2.780419811044396</v>
+        <v>1.029928884804917</v>
       </c>
       <c r="D11">
-        <v>0.06441058075865413</v>
+        <v>0.08308917981040764</v>
       </c>
       <c r="E11">
-        <v>0.1873449585842337</v>
+        <v>0.1452435530185809</v>
       </c>
       <c r="F11">
-        <v>3.756306410120999</v>
+        <v>2.911033834040921</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.253306099965172</v>
+        <v>1.213715941644594</v>
       </c>
       <c r="J11">
-        <v>0.3689308640114888</v>
+        <v>0.2411403839804933</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4533277147773944</v>
+        <v>1.365395732194592</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.96694237192861</v>
+        <v>2.62564609131141</v>
       </c>
       <c r="C12">
-        <v>2.861329561599405</v>
+        <v>1.047851449855102</v>
       </c>
       <c r="D12">
-        <v>0.06590377006506287</v>
+        <v>0.08340425923052663</v>
       </c>
       <c r="E12">
-        <v>0.1921917845775596</v>
+        <v>0.146142152726469</v>
       </c>
       <c r="F12">
-        <v>3.852408768069154</v>
+        <v>2.926187190886651</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.281890218180635</v>
+        <v>1.217044975724534</v>
       </c>
       <c r="J12">
-        <v>0.3789281508097133</v>
+        <v>0.2429541628470275</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4405658895847964</v>
+        <v>1.360238601176498</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.925316502857982</v>
+        <v>2.616048019923312</v>
       </c>
       <c r="C13">
-        <v>2.843844025410476</v>
+        <v>1.043988060277684</v>
       </c>
       <c r="D13">
-        <v>0.06558167138535964</v>
+        <v>0.08333627133006871</v>
       </c>
       <c r="E13">
-        <v>0.191144167355759</v>
+        <v>0.1459481341187399</v>
       </c>
       <c r="F13">
-        <v>3.831597085620899</v>
+        <v>2.922910569060491</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.275689056781829</v>
+        <v>1.216322327524594</v>
       </c>
       <c r="J13">
-        <v>0.3767655771935949</v>
+        <v>0.2425625426055404</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4432946263950228</v>
+        <v>1.361344993294356</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.790027412083191</v>
+        <v>2.584775412808597</v>
       </c>
       <c r="C14">
-        <v>2.787049537421353</v>
+        <v>1.031401835006534</v>
       </c>
       <c r="D14">
-        <v>0.06453319765761023</v>
+        <v>0.08311504300312578</v>
       </c>
       <c r="E14">
-        <v>0.1877420324533361</v>
+        <v>0.1453172610536626</v>
       </c>
       <c r="F14">
-        <v>3.764161883863807</v>
+        <v>2.912274622278829</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.255637652002648</v>
+        <v>1.213987265122768</v>
       </c>
       <c r="J14">
-        <v>0.3697491261350905</v>
+        <v>0.2412891586567127</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4522689656159784</v>
+        <v>1.364969520321935</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.707505260470043</v>
+        <v>2.565642118991775</v>
       </c>
       <c r="C15">
-        <v>2.752433412754158</v>
+        <v>1.023702469322529</v>
       </c>
       <c r="D15">
-        <v>0.06389244888824663</v>
+        <v>0.08297991515310343</v>
       </c>
       <c r="E15">
-        <v>0.1856689240132354</v>
+        <v>0.1449322641627973</v>
       </c>
       <c r="F15">
-        <v>3.723183741759158</v>
+        <v>2.905798031891095</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.243484912627963</v>
+        <v>1.212573585099264</v>
       </c>
       <c r="J15">
-        <v>0.3654785112046142</v>
+        <v>0.2405120705592196</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4578229782017829</v>
+        <v>1.36720219514331</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.239571349805999</v>
+        <v>2.456333686705648</v>
       </c>
       <c r="C16">
-        <v>2.556529945654233</v>
+        <v>0.9797336138368564</v>
       </c>
       <c r="D16">
-        <v>0.06024176937290093</v>
+        <v>0.08221141201142501</v>
       </c>
       <c r="E16">
-        <v>0.1739445139431055</v>
+        <v>0.1427478925707035</v>
       </c>
       <c r="F16">
-        <v>3.493089972122192</v>
+        <v>2.869267056334053</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.175714373437955</v>
+        <v>1.20472602618652</v>
       </c>
       <c r="J16">
-        <v>0.3413967521062347</v>
+        <v>0.2361031104682922</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4904876810460586</v>
+        <v>1.38018865832742</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.956591020396274</v>
+        <v>2.389575150615769</v>
       </c>
       <c r="C17">
-        <v>2.438376067524189</v>
+        <v>0.9528955618043824</v>
       </c>
       <c r="D17">
-        <v>0.05801970569267212</v>
+        <v>0.08174521316656325</v>
       </c>
       <c r="E17">
-        <v>0.1668809079467479</v>
+        <v>0.1414273362582037</v>
       </c>
       <c r="F17">
-        <v>3.355862689000332</v>
+        <v>2.847374909556549</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.135696388771009</v>
+        <v>1.200137114456865</v>
       </c>
       <c r="J17">
-        <v>0.3269470309391949</v>
+        <v>0.2334376231613788</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5112359415286853</v>
+        <v>1.388326231233599</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.795197258729331</v>
+        <v>2.351286439349224</v>
       </c>
       <c r="C18">
-        <v>2.371096355633028</v>
+        <v>0.9375083195316734</v>
       </c>
       <c r="D18">
-        <v>0.05674754459771236</v>
+        <v>0.08147900794644869</v>
       </c>
       <c r="E18">
-        <v>0.1628617420846439</v>
+        <v>0.1406749290831044</v>
       </c>
       <c r="F18">
-        <v>3.278265313357878</v>
+        <v>2.834972674181898</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.113208943388472</v>
+        <v>1.197580083948296</v>
       </c>
       <c r="J18">
-        <v>0.3187453055368081</v>
+        <v>0.2319188613163163</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5234166140097436</v>
+        <v>1.393069341393719</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.74077548287255</v>
+        <v>2.338341198671458</v>
       </c>
       <c r="C19">
-        <v>2.348427403510698</v>
+        <v>0.9323068860130093</v>
       </c>
       <c r="D19">
-        <v>0.0563177810255695</v>
+        <v>0.08138920954963424</v>
       </c>
       <c r="E19">
-        <v>0.1615080791976808</v>
+        <v>0.1404214018114232</v>
       </c>
       <c r="F19">
-        <v>3.252210989905649</v>
+        <v>2.830805953992098</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.105682282772079</v>
+        <v>1.196728429145523</v>
       </c>
       <c r="J19">
-        <v>0.3159862692434245</v>
+        <v>0.2314070932845169</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5275819246703044</v>
+        <v>1.394686011046659</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.986570234219357</v>
+        <v>2.396670410168554</v>
       </c>
       <c r="C20">
-        <v>2.450882032647428</v>
+        <v>0.9557474058381104</v>
       </c>
       <c r="D20">
-        <v>0.0582556250610935</v>
+        <v>0.0817946402609806</v>
       </c>
       <c r="E20">
-        <v>0.1676282438182568</v>
+        <v>0.1415671721548506</v>
       </c>
       <c r="F20">
-        <v>3.370330490320356</v>
+        <v>2.849685726631719</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.139900618835938</v>
+        <v>1.200617075647287</v>
       </c>
       <c r="J20">
-        <v>0.3284737019349251</v>
+        <v>0.2337198813782351</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5090014076865792</v>
+        <v>1.38745349061201</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.829692078971902</v>
+        <v>2.593956329811078</v>
       </c>
       <c r="C21">
-        <v>2.803695157739185</v>
+        <v>1.035096615159091</v>
       </c>
       <c r="D21">
-        <v>0.06484084973228477</v>
+        <v>0.08317994380022498</v>
       </c>
       <c r="E21">
-        <v>0.1887390475852513</v>
+        <v>0.1455022654228486</v>
       </c>
       <c r="F21">
-        <v>3.783900191576976</v>
+        <v>2.915390684230061</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.261500010986595</v>
+        <v>1.21466966507532</v>
       </c>
       <c r="J21">
-        <v>0.3718043051100324</v>
+        <v>0.241662578373834</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.449621021979226</v>
+        <v>1.363902293025511</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.395858963248088</v>
+        <v>2.723880431450539</v>
       </c>
       <c r="C22">
-        <v>3.041802235177272</v>
+        <v>1.087404934489314</v>
       </c>
       <c r="D22">
-        <v>0.06920909345436854</v>
+        <v>0.08410239312999579</v>
       </c>
       <c r="E22">
-        <v>0.2030090679436185</v>
+        <v>0.1481380771646528</v>
       </c>
       <c r="F22">
-        <v>4.068558420307653</v>
+        <v>2.960041320517632</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.346643314561945</v>
+        <v>1.224596299066476</v>
       </c>
       <c r="J22">
-        <v>0.4013126686026425</v>
+        <v>0.2469830219693279</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4133238415680438</v>
+        <v>1.349071342928756</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.092143127820009</v>
+        <v>2.654446482806236</v>
       </c>
       <c r="C23">
-        <v>2.913952981853697</v>
+        <v>1.059445421390592</v>
       </c>
       <c r="D23">
-        <v>0.06687115805865318</v>
+        <v>0.08360851202738928</v>
       </c>
       <c r="E23">
-        <v>0.1953451335665832</v>
+        <v>0.1467254188394662</v>
       </c>
       <c r="F23">
-        <v>3.91518309893172</v>
+        <v>2.93605307975011</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.300631101056041</v>
+        <v>1.21922990413718</v>
       </c>
       <c r="J23">
-        <v>0.3854432048487837</v>
+        <v>0.2441314799762893</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4324498406677684</v>
+        <v>1.356935374816725</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.973012627587991</v>
+        <v>2.393462357992291</v>
       </c>
       <c r="C24">
-        <v>2.445226081185638</v>
+        <v>0.9544579554709003</v>
       </c>
       <c r="D24">
-        <v>0.058148949426581</v>
+        <v>0.08177228860405705</v>
       </c>
       <c r="E24">
-        <v>0.1672902439688144</v>
+        <v>0.1415039311753929</v>
       </c>
       <c r="F24">
-        <v>3.363785585480002</v>
+        <v>2.848640433804377</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.137998278494678</v>
+        <v>1.200399832382629</v>
       </c>
       <c r="J24">
-        <v>0.3277831672691605</v>
+        <v>0.2335922299009354</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5100108581096343</v>
+        <v>1.387847855127699</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.817000795698448</v>
+        <v>2.11610759024154</v>
       </c>
       <c r="C25">
-        <v>1.965010261011003</v>
+        <v>0.8430904984640506</v>
       </c>
       <c r="D25">
-        <v>0.04896188874969454</v>
+        <v>0.0798659121768921</v>
       </c>
       <c r="E25">
-        <v>0.1386626512934086</v>
+        <v>0.1361445130052914</v>
       </c>
       <c r="F25">
-        <v>2.818937999622506</v>
+        <v>2.761586229951121</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9824462463625565</v>
+        <v>1.183233321581369</v>
       </c>
       <c r="J25">
-        <v>0.2696826563197163</v>
+        <v>0.2227718428260346</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6029846573959183</v>
+        <v>1.423583010745141</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.915337084949954</v>
+        <v>3.996919632131949</v>
       </c>
       <c r="C2">
-        <v>0.7626329390455453</v>
+        <v>1.626856117552279</v>
       </c>
       <c r="D2">
-        <v>0.0785268819043381</v>
+        <v>0.04233555741362949</v>
       </c>
       <c r="E2">
-        <v>0.1324298137336264</v>
+        <v>0.1186209175981467</v>
       </c>
       <c r="F2">
-        <v>2.70358111804515</v>
+        <v>2.449829431937573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.173246884594342</v>
+        <v>0.8808736830068185</v>
       </c>
       <c r="J2">
-        <v>0.2152654089921526</v>
+        <v>0.2294894758312722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.451936423763801</v>
+        <v>0.6781183622178908</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.781360351033413</v>
+        <v>3.455240944645197</v>
       </c>
       <c r="C3">
-        <v>0.7090328520513367</v>
+        <v>1.404698135645333</v>
       </c>
       <c r="D3">
-        <v>0.07766014432237967</v>
+        <v>0.03790966611082069</v>
       </c>
       <c r="E3">
-        <v>0.1300552079161079</v>
+        <v>0.1055338581493857</v>
       </c>
       <c r="F3">
-        <v>2.668008519446587</v>
+        <v>2.215227122679494</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.168108977947384</v>
+        <v>0.8184283131629471</v>
       </c>
       <c r="J3">
-        <v>0.210460442578956</v>
+        <v>0.2034805648970419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.472418139736323</v>
+        <v>0.7326602509685323</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.700109919135343</v>
+        <v>3.128108724033837</v>
       </c>
       <c r="C4">
-        <v>0.6765687448395283</v>
+        <v>1.271017244826226</v>
       </c>
       <c r="D4">
-        <v>0.07714822277146993</v>
+        <v>0.03521819920911184</v>
       </c>
       <c r="E4">
-        <v>0.1286672436206757</v>
+        <v>0.09770002964087254</v>
       </c>
       <c r="F4">
-        <v>2.647991089842691</v>
+        <v>2.077591334664803</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.165750334107337</v>
+        <v>0.7827607289975091</v>
       </c>
       <c r="J4">
-        <v>0.207647818626512</v>
+        <v>0.1880100092594503</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.485616131307161</v>
+        <v>0.7677832491069019</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.667252282828542</v>
+        <v>2.995975071651742</v>
       </c>
       <c r="C5">
-        <v>0.6634503937988825</v>
+        <v>1.217129302794376</v>
       </c>
       <c r="D5">
-        <v>0.07694473635663002</v>
+        <v>0.03412718639225432</v>
       </c>
       <c r="E5">
-        <v>0.1281192083343825</v>
+        <v>0.0945527337705343</v>
       </c>
       <c r="F5">
-        <v>2.640290004049447</v>
+        <v>2.02294836970465</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.164988256555297</v>
+        <v>0.7688345065975568</v>
       </c>
       <c r="J5">
-        <v>0.2065360688797355</v>
+        <v>0.1818167914394309</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.49115044753847</v>
+        <v>0.7824864354186616</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.661811498981308</v>
+        <v>2.974099936197433</v>
       </c>
       <c r="C6">
-        <v>0.6612787716596813</v>
+        <v>1.208214106501941</v>
       </c>
       <c r="D6">
-        <v>0.07691125811196287</v>
+        <v>0.03394635278040425</v>
       </c>
       <c r="E6">
-        <v>0.128029267509099</v>
+        <v>0.0940326932056692</v>
       </c>
       <c r="F6">
-        <v>2.639038722698331</v>
+        <v>2.013957605731562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.164873707134348</v>
+        <v>0.7665570715854741</v>
       </c>
       <c r="J6">
-        <v>0.206353536779595</v>
+        <v>0.1807947326454808</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.492078828231861</v>
+        <v>0.7849508945049593</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.699665769334615</v>
+        <v>3.126322212299158</v>
       </c>
       <c r="C7">
-        <v>0.6763913782256168</v>
+        <v>1.270288233621386</v>
       </c>
       <c r="D7">
-        <v>0.0771454576853543</v>
+        <v>0.03520346297700883</v>
       </c>
       <c r="E7">
-        <v>0.1286597815353971</v>
+        <v>0.09765740879053197</v>
       </c>
       <c r="F7">
-        <v>2.647885386646891</v>
+        <v>2.076848760750806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.165739251808382</v>
+        <v>0.7825705309314088</v>
       </c>
       <c r="J7">
-        <v>0.20763268607935</v>
+        <v>0.1879260532349889</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.485690137848827</v>
+        <v>0.7679799870035282</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.868930727528095</v>
+        <v>3.808890299732639</v>
       </c>
       <c r="C8">
-        <v>0.7440581658860879</v>
+        <v>1.549628944815368</v>
       </c>
       <c r="D8">
-        <v>0.0782238444535821</v>
+        <v>0.04080361462087012</v>
       </c>
       <c r="E8">
-        <v>0.1315964821197291</v>
+        <v>0.1140630590374379</v>
       </c>
       <c r="F8">
-        <v>2.690935490946529</v>
+        <v>2.367502108587743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.171309453041466</v>
+        <v>0.8587471558175537</v>
       </c>
       <c r="J8">
-        <v>0.2135799684315316</v>
+        <v>0.2204089664799227</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.458869147399096</v>
+        <v>0.6965722190272743</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.208991472260152</v>
+        <v>5.200796936905135</v>
       </c>
       <c r="C9">
-        <v>0.8803605316782637</v>
+        <v>2.123989778974362</v>
       </c>
       <c r="D9">
-        <v>0.08049809227363625</v>
+        <v>0.05203197261646153</v>
       </c>
       <c r="E9">
-        <v>0.1379136895224313</v>
+        <v>0.1481225962348454</v>
       </c>
       <c r="F9">
-        <v>2.789955708269275</v>
+        <v>2.996834183851945</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.188600361106026</v>
+        <v>1.03258157503403</v>
       </c>
       <c r="J9">
-        <v>0.2263444712621521</v>
+        <v>0.2887957534803007</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.411227413368142</v>
+        <v>0.5705488274495103</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.463966126344474</v>
+        <v>6.272056144141061</v>
       </c>
       <c r="C10">
-        <v>0.9828027359244516</v>
+        <v>2.570108792113615</v>
       </c>
       <c r="D10">
-        <v>0.08226487072665378</v>
+        <v>0.06049616027036819</v>
       </c>
       <c r="E10">
-        <v>0.1428995463345828</v>
+        <v>0.1747566980734874</v>
       </c>
       <c r="F10">
-        <v>2.871790857142884</v>
+        <v>3.508936931262923</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.205260846780263</v>
+        <v>1.180355492113137</v>
       </c>
       <c r="J10">
-        <v>0.2364092117753955</v>
+        <v>0.3430610620928718</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.379268598837079</v>
+        <v>0.4881545887356715</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.581115233099183</v>
+        <v>6.774226401076191</v>
       </c>
       <c r="C11">
-        <v>1.029928884804917</v>
+        <v>2.780419811043885</v>
       </c>
       <c r="D11">
-        <v>0.08308917981040764</v>
+        <v>0.06441058075846229</v>
       </c>
       <c r="E11">
-        <v>0.1452435530185809</v>
+        <v>0.1873449585842479</v>
       </c>
       <c r="F11">
-        <v>2.911033834040921</v>
+        <v>3.756306410120999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.213715941644594</v>
+        <v>1.253306099965172</v>
       </c>
       <c r="J11">
-        <v>0.2411403839804933</v>
+        <v>0.3689308640114461</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.365395732194592</v>
+        <v>0.4533277147774015</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.62564609131141</v>
+        <v>6.96694237192861</v>
       </c>
       <c r="C12">
-        <v>1.047851449855102</v>
+        <v>2.861329561599632</v>
       </c>
       <c r="D12">
-        <v>0.08340425923052663</v>
+        <v>0.06590377006482839</v>
       </c>
       <c r="E12">
-        <v>0.146142152726469</v>
+        <v>0.1921917845775951</v>
       </c>
       <c r="F12">
-        <v>2.926187190886651</v>
+        <v>3.852408768069154</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.217044975724534</v>
+        <v>1.281890218180607</v>
       </c>
       <c r="J12">
-        <v>0.2429541628470275</v>
+        <v>0.3789281508096991</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.360238601176498</v>
+        <v>0.4405658895848141</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.616048019923312</v>
+        <v>6.925316502858095</v>
       </c>
       <c r="C13">
-        <v>1.043988060277684</v>
+        <v>2.843844025410533</v>
       </c>
       <c r="D13">
-        <v>0.08333627133006871</v>
+        <v>0.06558167138533122</v>
       </c>
       <c r="E13">
-        <v>0.1459481341187399</v>
+        <v>0.1911441673557874</v>
       </c>
       <c r="F13">
-        <v>2.922910569060491</v>
+        <v>3.831597085620928</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.216322327524594</v>
+        <v>1.275689056781843</v>
       </c>
       <c r="J13">
-        <v>0.2425625426055404</v>
+        <v>0.3767655771935239</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.361344993294356</v>
+        <v>0.4432946263950264</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.584775412808597</v>
+        <v>6.790027412083191</v>
       </c>
       <c r="C14">
-        <v>1.031401835006534</v>
+        <v>2.787049537421467</v>
       </c>
       <c r="D14">
-        <v>0.08311504300312578</v>
+        <v>0.06453319765736154</v>
       </c>
       <c r="E14">
-        <v>0.1453172610536626</v>
+        <v>0.1877420324533148</v>
       </c>
       <c r="F14">
-        <v>2.912274622278829</v>
+        <v>3.764161883863807</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.213987265122768</v>
+        <v>1.255637652002662</v>
       </c>
       <c r="J14">
-        <v>0.2412891586567127</v>
+        <v>0.3697491261351331</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.364969520321935</v>
+        <v>0.4522689656159962</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.565642118991775</v>
+        <v>6.707505260470214</v>
       </c>
       <c r="C15">
-        <v>1.023702469322529</v>
+        <v>2.752433412754044</v>
       </c>
       <c r="D15">
-        <v>0.08297991515310343</v>
+        <v>0.06389244888796242</v>
       </c>
       <c r="E15">
-        <v>0.1449322641627973</v>
+        <v>0.1856689240132567</v>
       </c>
       <c r="F15">
-        <v>2.905798031891095</v>
+        <v>3.723183741759186</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.212573585099264</v>
+        <v>1.243484912627963</v>
       </c>
       <c r="J15">
-        <v>0.2405120705592196</v>
+        <v>0.3654785112046284</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.36720219514331</v>
+        <v>0.4578229782017651</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.456333686705648</v>
+        <v>6.239571349805942</v>
       </c>
       <c r="C16">
-        <v>0.9797336138368564</v>
+        <v>2.556529945654006</v>
       </c>
       <c r="D16">
-        <v>0.08221141201142501</v>
+        <v>0.06024176937279435</v>
       </c>
       <c r="E16">
-        <v>0.1427478925707035</v>
+        <v>0.1739445139430984</v>
       </c>
       <c r="F16">
-        <v>2.869267056334053</v>
+        <v>3.493089972122135</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.20472602618652</v>
+        <v>1.17571437343797</v>
       </c>
       <c r="J16">
-        <v>0.2361031104682922</v>
+        <v>0.3413967521062489</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.38018865832742</v>
+        <v>0.4904876810460621</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.389575150615769</v>
+        <v>5.956591020396274</v>
       </c>
       <c r="C17">
-        <v>0.9528955618043824</v>
+        <v>2.43837606752453</v>
       </c>
       <c r="D17">
-        <v>0.08174521316656325</v>
+        <v>0.05801970569254422</v>
       </c>
       <c r="E17">
-        <v>0.1414273362582037</v>
+        <v>0.1668809079467763</v>
       </c>
       <c r="F17">
-        <v>2.847374909556549</v>
+        <v>3.355862689000361</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.200137114456865</v>
+        <v>1.135696388771009</v>
       </c>
       <c r="J17">
-        <v>0.2334376231613788</v>
+        <v>0.3269470309392659</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.388326231233599</v>
+        <v>0.5112359415286676</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.351286439349224</v>
+        <v>5.795197258729274</v>
       </c>
       <c r="C18">
-        <v>0.9375083195316734</v>
+        <v>2.371096355632858</v>
       </c>
       <c r="D18">
-        <v>0.08147900794644869</v>
+        <v>0.05674754459760578</v>
       </c>
       <c r="E18">
-        <v>0.1406749290831044</v>
+        <v>0.1628617420846936</v>
       </c>
       <c r="F18">
-        <v>2.834972674181898</v>
+        <v>3.278265313357849</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.197580083948296</v>
+        <v>1.113208943388486</v>
       </c>
       <c r="J18">
-        <v>0.2319188613163163</v>
+        <v>0.3187453055367513</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.393069341393719</v>
+        <v>0.5234166140097898</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.338341198671458</v>
+        <v>5.74077548287255</v>
       </c>
       <c r="C19">
-        <v>0.9323068860130093</v>
+        <v>2.34842740351047</v>
       </c>
       <c r="D19">
-        <v>0.08138920954963424</v>
+        <v>0.05631778102566898</v>
       </c>
       <c r="E19">
-        <v>0.1404214018114232</v>
+        <v>0.161508079197624</v>
       </c>
       <c r="F19">
-        <v>2.830805953992098</v>
+        <v>3.252210989905649</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.196728429145523</v>
+        <v>1.105682282772079</v>
       </c>
       <c r="J19">
-        <v>0.2314070932845169</v>
+        <v>0.3159862692431687</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.394686011046659</v>
+        <v>0.5275819246702937</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.396670410168554</v>
+        <v>5.986570234219414</v>
       </c>
       <c r="C20">
-        <v>0.9557474058381104</v>
+        <v>2.450882032647598</v>
       </c>
       <c r="D20">
-        <v>0.0817946402609806</v>
+        <v>0.05825562506086612</v>
       </c>
       <c r="E20">
-        <v>0.1415671721548506</v>
+        <v>0.1676282438182284</v>
       </c>
       <c r="F20">
-        <v>2.849685726631719</v>
+        <v>3.370330490320356</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.200617075647287</v>
+        <v>1.139900618835952</v>
       </c>
       <c r="J20">
-        <v>0.2337198813782351</v>
+        <v>0.3284737019350104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.38745349061201</v>
+        <v>0.5090014076866538</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.593956329811078</v>
+        <v>6.829692078971846</v>
       </c>
       <c r="C21">
-        <v>1.035096615159091</v>
+        <v>2.803695157739469</v>
       </c>
       <c r="D21">
-        <v>0.08317994380022498</v>
+        <v>0.06484084973239135</v>
       </c>
       <c r="E21">
-        <v>0.1455022654228486</v>
+        <v>0.1887390475852797</v>
       </c>
       <c r="F21">
-        <v>2.915390684230061</v>
+        <v>3.783900191576976</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.21466966507532</v>
+        <v>1.261500010986609</v>
       </c>
       <c r="J21">
-        <v>0.241662578373834</v>
+        <v>0.3718043051100466</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.363902293025511</v>
+        <v>0.4496210219792651</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.723880431450539</v>
+        <v>7.395858963247747</v>
       </c>
       <c r="C22">
-        <v>1.087404934489314</v>
+        <v>3.041802235177272</v>
       </c>
       <c r="D22">
-        <v>0.08410239312999579</v>
+        <v>0.06920909345472381</v>
       </c>
       <c r="E22">
-        <v>0.1481380771646528</v>
+        <v>0.2030090679436256</v>
       </c>
       <c r="F22">
-        <v>2.960041320517632</v>
+        <v>4.068558420307653</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.224596299066476</v>
+        <v>1.346643314561931</v>
       </c>
       <c r="J22">
-        <v>0.2469830219693279</v>
+        <v>0.4013126686027988</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.349071342928756</v>
+        <v>0.413323841568058</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.654446482806236</v>
+        <v>7.092143127820123</v>
       </c>
       <c r="C23">
-        <v>1.059445421390592</v>
+        <v>2.913952981853527</v>
       </c>
       <c r="D23">
-        <v>0.08360851202738928</v>
+        <v>0.06687115805850397</v>
       </c>
       <c r="E23">
-        <v>0.1467254188394662</v>
+        <v>0.1953451335666045</v>
       </c>
       <c r="F23">
-        <v>2.93605307975011</v>
+        <v>3.91518309893172</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.21922990413718</v>
+        <v>1.300631101056055</v>
       </c>
       <c r="J23">
-        <v>0.2441314799762893</v>
+        <v>0.385443204848869</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356935374816725</v>
+        <v>0.4324498406678252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.393462357992291</v>
+        <v>5.973012627587877</v>
       </c>
       <c r="C24">
-        <v>0.9544579554709003</v>
+        <v>2.445226081185638</v>
       </c>
       <c r="D24">
-        <v>0.08177228860405705</v>
+        <v>0.05814894942643178</v>
       </c>
       <c r="E24">
-        <v>0.1415039311753929</v>
+        <v>0.1672902439688286</v>
       </c>
       <c r="F24">
-        <v>2.848640433804377</v>
+        <v>3.363785585479974</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.200399832382629</v>
+        <v>1.137998278494678</v>
       </c>
       <c r="J24">
-        <v>0.2335922299009354</v>
+        <v>0.3277831672693026</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.387847855127699</v>
+        <v>0.5100108581096769</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11610759024154</v>
+        <v>4.817000795698448</v>
       </c>
       <c r="C25">
-        <v>0.8430904984640506</v>
+        <v>1.965010261010775</v>
       </c>
       <c r="D25">
-        <v>0.0798659121768921</v>
+        <v>0.04896188874979401</v>
       </c>
       <c r="E25">
-        <v>0.1361445130052914</v>
+        <v>0.1386626512933162</v>
       </c>
       <c r="F25">
-        <v>2.761586229951121</v>
+        <v>2.818937999622506</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.183233321581369</v>
+        <v>0.9824462463625707</v>
       </c>
       <c r="J25">
-        <v>0.2227718428260346</v>
+        <v>0.2696826563197163</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.423583010745141</v>
+        <v>0.6029846573959858</v>
       </c>
       <c r="O25">
         <v>0</v>
